--- a/Myocardial/rulex_results/Scoring_Rules_myocardio_multi.xlsx
+++ b/Myocardial/rulex_results/Scoring_Rules_myocardio_multi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudublin-my.sharepoint.com/personal/lucas_rizzo_tudublin_ie/Documents/rulex/Multiclass/Myocardial/rulex_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{35AB70DC-E106-4123-92D8-4583ED40F459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8C474C4-7465-44C3-A82B-980EB47A17A3}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{35AB70DC-E106-4123-92D8-4583ED40F459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70E1D465-EF4A-4C95-B709-3D8C2B452400}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Error Max 0.010 Fold 1" sheetId="1" r:id="rId1"/>
@@ -1733,18 +1733,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.7109375" customWidth="1"/>
+    <col min="1" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.7265625" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>8.1255999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1867,7 +1868,7 @@
         <v>6.6931000000000004E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1908,7 +1909,7 @@
         <v>4.4703E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>4.0998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1984,7 +1985,7 @@
         <v>3.9516000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2022,7 +2023,7 @@
         <v>3.8034999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>3.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2101,7 +2102,7 @@
         <v>3.4070999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2139,7 +2140,7 @@
         <v>3.0624999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2180,7 +2181,7 @@
         <v>2.6674E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>2.6179999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2259,7 +2260,7 @@
         <v>2.3956999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>2.3376999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2338,7 +2339,7 @@
         <v>2.2474999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2379,7 +2380,7 @@
         <v>2.0499E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2417,7 +2418,7 @@
         <v>1.9758000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2452,7 +2453,7 @@
         <v>1.9511000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2493,7 +2494,7 @@
         <v>1.9511000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2531,7 +2532,7 @@
         <v>1.9264E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>1.9016999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2610,7 +2611,7 @@
         <v>1.6301E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>1.5668000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2683,7 +2684,7 @@
         <v>1.5066E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2721,7 +2722,7 @@
         <v>1.4819000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>1.4922E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>1.4324999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2841,7 +2842,7 @@
         <v>1.4078E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2876,7 +2877,7 @@
         <v>1.3584000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>1.1854999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>1.1114000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2987,7 +2988,7 @@
         <v>1.0444999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3025,7 +3026,7 @@
         <v>1.0373E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>9.8790000000000006E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3104,7 +3105,7 @@
         <v>9.6989999999999993E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3145,7 +3146,7 @@
         <v>9.3849999999999992E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3177,7 +3178,7 @@
         <v>9.1380000000000003E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3218,7 +3219,7 @@
         <v>9.1380000000000003E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3256,7 +3257,7 @@
         <v>8.8909999999999996E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>8.8909999999999996E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3338,7 +3339,7 @@
         <v>7.9030000000000003E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3379,7 +3380,7 @@
         <v>7.4089999999999998E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3414,7 +3415,7 @@
         <v>6.9150000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3452,7 +3453,7 @@
         <v>6.9150000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>6.2170000000000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3528,7 +3529,7 @@
         <v>5.927E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3569,7 +3570,7 @@
         <v>5.927E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>5.6800000000000002E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3645,7 +3646,7 @@
         <v>5.4339999999999996E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3686,7 +3687,7 @@
         <v>5.2230000000000002E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3724,7 +3725,7 @@
         <v>4.9740000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3765,7 +3766,7 @@
         <v>4.9399999999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3806,7 +3807,7 @@
         <v>4.6930000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3841,7 +3842,7 @@
         <v>4.4460000000000003E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3879,7 +3880,7 @@
         <v>4.4460000000000003E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3920,7 +3921,7 @@
         <v>4.1989999999999996E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3961,7 +3962,7 @@
         <v>4.228E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4002,7 +4003,7 @@
         <v>4.1989999999999996E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4043,7 +4044,7 @@
         <v>3.705E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4081,7 +4082,7 @@
         <v>3.4819999999999999E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4119,7 +4120,7 @@
         <v>3.4580000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4157,7 +4158,7 @@
         <v>3.2330000000000002E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4195,7 +4196,7 @@
         <v>2.9840000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4233,7 +4234,7 @@
         <v>2.7360000000000002E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4265,7 +4266,7 @@
         <v>0.196183</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4303,7 +4304,7 @@
         <v>0.15170900000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4341,7 +4342,7 @@
         <v>0.129942</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>8.7192000000000006E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4414,7 +4415,7 @@
         <v>8.6752999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4449,7 +4450,7 @@
         <v>6.5158999999999995E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>6.5347000000000002E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4528,7 +4529,7 @@
         <v>6.5206E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4563,7 +4564,7 @@
         <v>4.3596000000000003E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4601,7 +4602,7 @@
         <v>4.3626999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4639,7 +4640,7 @@
         <v>4.3471000000000003E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4677,7 +4678,7 @@
         <v>2.1814E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4715,7 +4716,7 @@
         <v>0.45294000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4750,7 +4751,7 @@
         <v>0.18207499999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4785,7 +4786,7 @@
         <v>0.18271699999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4820,7 +4821,7 @@
         <v>9.1165999999999997E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4858,7 +4859,7 @@
         <v>9.1102000000000002E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4896,7 +4897,7 @@
         <v>0.13217100000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4934,7 +4935,7 @@
         <v>0.112881</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4969,7 +4970,7 @@
         <v>9.3998999999999999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5004,7 +5005,7 @@
         <v>9.4408000000000006E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5042,7 +5043,7 @@
         <v>9.3998999999999999E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5077,7 +5078,7 @@
         <v>7.5580999999999995E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5115,7 +5116,7 @@
         <v>7.5744000000000006E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5153,7 +5154,7 @@
         <v>7.5689999999999993E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5188,7 +5189,7 @@
         <v>5.6684999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5226,7 +5227,7 @@
         <v>5.6481000000000003E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5267,7 +5268,7 @@
         <v>5.6645000000000001E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5302,7 +5303,7 @@
         <v>3.7926000000000001E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5343,7 +5344,7 @@
         <v>3.7789999999999997E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5378,7 +5379,7 @@
         <v>0.28606100000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5413,7 +5414,7 @@
         <v>0.214394</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5454,7 +5455,7 @@
         <v>0.213787</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5489,7 +5490,7 @@
         <v>0.142626</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5524,7 +5525,7 @@
         <v>0.14313200000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5565,7 +5566,7 @@
         <v>0.49964700000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>0.333569</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5635,7 +5636,7 @@
         <v>0.16678399999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5676,7 +5677,7 @@
         <v>0.311228</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -5717,7 +5718,7 @@
         <v>0.24986700000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -5752,7 +5753,7 @@
         <v>0.12546499999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -5790,7 +5791,7 @@
         <v>0.12537599999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -5831,7 +5832,7 @@
         <v>0.125199</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -5866,7 +5867,7 @@
         <v>6.2865000000000004E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -5904,7 +5905,7 @@
         <v>0.23455799999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -5939,7 +5940,7 @@
         <v>0.17591799999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -5980,7 +5981,7 @@
         <v>0.17604300000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -6015,7 +6016,7 @@
         <v>0.118114</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -6053,7 +6054,7 @@
         <v>0.118364</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -6088,7 +6089,7 @@
         <v>5.9139999999999998E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -6123,7 +6124,7 @@
         <v>5.8805999999999997E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -6172,16 +6173,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.7109375" customWidth="1"/>
+    <col min="1" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.7265625" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>274</v>
       </c>
@@ -6222,7 +6224,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6260,7 +6262,7 @@
         <v>0.106389</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6295,7 +6297,7 @@
         <v>7.1493000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6336,7 +6338,7 @@
         <v>6.5656999999999993E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6371,7 +6373,7 @@
         <v>6.0988000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6409,7 +6411,7 @@
         <v>5.5051999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6447,7 +6449,7 @@
         <v>5.1137000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6488,7 +6490,7 @@
         <v>4.2895999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6526,7 +6528,7 @@
         <v>4.0263E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6561,7 +6563,7 @@
         <v>3.9685999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6599,7 +6601,7 @@
         <v>3.6443000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6640,7 +6642,7 @@
         <v>3.5854999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6681,7 +6683,7 @@
         <v>3.0270999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6716,7 +6718,7 @@
         <v>2.9894E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6754,7 +6756,7 @@
         <v>2.8413999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6792,7 +6794,7 @@
         <v>2.7722E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6830,7 +6832,7 @@
         <v>2.6637999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6862,7 +6864,7 @@
         <v>2.5749999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6903,7 +6905,7 @@
         <v>2.3928000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6941,7 +6943,7 @@
         <v>2.2468999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6982,7 +6984,7 @@
         <v>1.9550999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7023,7 +7025,7 @@
         <v>1.8647E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7061,7 +7063,7 @@
         <v>1.8221000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7099,7 +7101,7 @@
         <v>1.5687E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7140,7 +7142,7 @@
         <v>1.5466000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7178,7 +7180,7 @@
         <v>1.4903E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7213,7 +7215,7 @@
         <v>1.2605999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7248,7 +7250,7 @@
         <v>1.222E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7283,7 +7285,7 @@
         <v>1.1381E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7321,7 +7323,7 @@
         <v>1.1381E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7359,7 +7361,7 @@
         <v>9.3380000000000008E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7400,7 +7402,7 @@
         <v>9.3380000000000008E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7432,7 +7434,7 @@
         <v>5.2529999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7470,7 +7472,7 @@
         <v>5.0670000000000003E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7511,7 +7513,7 @@
         <v>0.243173</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7552,7 +7554,7 @@
         <v>0.208899</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7584,7 +7586,7 @@
         <v>0.16179199999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7622,7 +7624,7 @@
         <v>0.15714</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -7660,7 +7662,7 @@
         <v>0.123848</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -7701,7 +7703,7 @@
         <v>0.10514800000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7739,7 +7741,7 @@
         <v>0.54627300000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -7774,7 +7776,7 @@
         <v>0.36104900000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -7809,7 +7811,7 @@
         <v>9.2676999999999995E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -7844,7 +7846,7 @@
         <v>0.19067799999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -7879,7 +7881,7 @@
         <v>0.191248</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -7914,7 +7916,7 @@
         <v>0.19295699999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7952,7 +7954,7 @@
         <v>0.11440699999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7987,7 +7989,7 @@
         <v>9.7902000000000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -8028,7 +8030,7 @@
         <v>9.5838000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -8066,7 +8068,7 @@
         <v>7.7695E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -8104,7 +8106,7 @@
         <v>3.9274999999999997E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -8145,7 +8147,7 @@
         <v>0.435062</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -8183,7 +8185,7 @@
         <v>0.375085</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -8218,7 +8220,7 @@
         <v>0.18985299999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -8259,7 +8261,7 @@
         <v>0.66027800000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -8297,7 +8299,7 @@
         <v>0.33972200000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -8338,7 +8340,7 @@
         <v>0.43569099999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8373,7 +8375,7 @@
         <v>0.251303</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8408,7 +8410,7 @@
         <v>0.186725</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8443,7 +8445,7 @@
         <v>0.126281</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8481,7 +8483,7 @@
         <v>0.38481300000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8519,7 +8521,7 @@
         <v>0.22439100000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8551,7 +8553,7 @@
         <v>0.16672699999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8589,7 +8591,7 @@
         <v>0.16769100000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8635,16 +8637,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.7109375" customWidth="1"/>
+    <col min="12" max="12" width="33.7265625" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>359</v>
       </c>
@@ -8685,7 +8688,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8723,7 +8726,7 @@
         <v>0.12651999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8755,7 +8758,7 @@
         <v>0.115287</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8796,7 +8799,7 @@
         <v>7.8926999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8837,7 +8840,7 @@
         <v>6.7102999999999996E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8872,7 +8875,7 @@
         <v>6.4070000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8913,7 +8916,7 @@
         <v>5.9713000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8945,7 +8948,7 @@
         <v>5.3697000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8977,7 +8980,7 @@
         <v>5.3872999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9018,7 +9021,7 @@
         <v>4.4372000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -9056,7 +9059,7 @@
         <v>4.3454E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -9097,7 +9100,7 @@
         <v>4.1681000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9135,7 +9138,7 @@
         <v>4.0492E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -9170,7 +9173,7 @@
         <v>3.1565999999999997E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -9208,7 +9211,7 @@
         <v>2.7491000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9249,7 +9252,7 @@
         <v>2.6801999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -9281,7 +9284,7 @@
         <v>2.7050999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -9313,7 +9316,7 @@
         <v>2.3649E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9354,7 +9357,7 @@
         <v>2.2466E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -9395,7 +9398,7 @@
         <v>2.2360999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -9433,7 +9436,7 @@
         <v>1.8166000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -9468,7 +9471,7 @@
         <v>1.1261999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -9506,7 +9509,7 @@
         <v>0.22154499999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -9541,7 +9544,7 @@
         <v>0.18789700000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -9579,7 +9582,7 @@
         <v>0.17210800000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -9611,7 +9614,7 @@
         <v>0.148954</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -9646,7 +9649,7 @@
         <v>0.14327899999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -9684,7 +9687,7 @@
         <v>0.126217</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -9719,7 +9722,7 @@
         <v>0.54527300000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -9760,7 +9763,7 @@
         <v>0.45472699999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -9801,7 +9804,7 @@
         <v>0.317826</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -9842,7 +9845,7 @@
         <v>0.29933900000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -9883,7 +9886,7 @@
         <v>0.22153500000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -9918,7 +9921,7 @@
         <v>0.121572</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -9953,7 +9956,7 @@
         <v>3.9727999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -9988,7 +9991,7 @@
         <v>0.43365100000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -10023,7 +10026,7 @@
         <v>0.37980000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -10055,7 +10058,7 @@
         <v>0.18654899999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -10093,7 +10096,7 @@
         <v>0.65966800000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -10128,7 +10131,7 @@
         <v>0.34033200000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -10169,7 +10172,7 @@
         <v>0.43299599999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -10210,7 +10213,7 @@
         <v>0.315106</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -10245,7 +10248,7 @@
         <v>0.25189800000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -10286,7 +10289,7 @@
         <v>0.44237100000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -10321,7 +10324,7 @@
         <v>0.38592799999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -10353,7 +10356,7 @@
         <v>0.114768</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -10399,16 +10402,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.7109375" customWidth="1"/>
+    <col min="1" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.7265625" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>422</v>
       </c>
@@ -10449,7 +10453,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10487,7 +10491,7 @@
         <v>0.145672</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -10519,7 +10523,7 @@
         <v>0.135439</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -10557,7 +10561,7 @@
         <v>0.116469</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -10598,7 +10602,7 @@
         <v>0.109858</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -10636,7 +10640,7 @@
         <v>9.1682E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -10677,7 +10681,7 @@
         <v>7.4111999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -10712,7 +10716,7 @@
         <v>7.5269000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -10750,7 +10754,7 @@
         <v>5.3244E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -10791,7 +10795,7 @@
         <v>4.8925000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -10829,7 +10833,7 @@
         <v>4.7877999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -10870,7 +10874,7 @@
         <v>3.4296E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -10911,7 +10915,7 @@
         <v>2.6284999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -10946,7 +10950,7 @@
         <v>2.1027000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -10987,7 +10991,7 @@
         <v>1.9844000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -11022,7 +11026,7 @@
         <v>0.24419299999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -11054,7 +11058,7 @@
         <v>0.17116899999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -11089,7 +11093,7 @@
         <v>0.17143600000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -11121,7 +11125,7 @@
         <v>0.15568000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -11153,7 +11157,7 @@
         <v>0.1394</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -11191,7 +11195,7 @@
         <v>0.118121</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -11232,7 +11236,7 @@
         <v>0.54150900000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -11264,7 +11268,7 @@
         <v>0.45849099999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -11302,7 +11306,7 @@
         <v>0.52801399999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -11340,7 +11344,7 @@
         <v>0.20254800000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -11372,7 +11376,7 @@
         <v>0.13680700000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -11410,7 +11414,7 @@
         <v>8.7444999999999995E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -11445,7 +11449,7 @@
         <v>4.5185000000000003E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -11477,7 +11481,7 @@
         <v>0.43160300000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -11509,7 +11513,7 @@
         <v>0.376828</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -11541,7 +11545,7 @@
         <v>0.19156899999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -11579,7 +11583,7 @@
         <v>0.65966800000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -11614,7 +11618,7 @@
         <v>0.34033200000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -11652,7 +11656,7 @@
         <v>0.43187399999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -11693,7 +11697,7 @@
         <v>0.43716899999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -11725,7 +11729,7 @@
         <v>0.13095699999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -11763,7 +11767,7 @@
         <v>0.44253500000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -11795,7 +11799,7 @@
         <v>0.38073000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -11827,7 +11831,7 @@
         <v>0.118133</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -11868,26 +11872,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="35e04e53-8035-4693-a7c1-f4caf4429e95" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="94dc1244-2250-4226-8a6d-024056f3e2cb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100AF64E39BDF063145A3CCF26D1014A5F5" ma:contentTypeVersion="17" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="80a98ef0f9b4d9116a370af2033599bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="94dc1244-2250-4226-8a6d-024056f3e2cb" xmlns:ns3="35e04e53-8035-4693-a7c1-f4caf4429e95" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8da2e27824f9ad78ea0797750853939" ns2:_="" ns3:_="">
     <xsd:import namespace="94dc1244-2250-4226-8a6d-024056f3e2cb"/>
@@ -12136,26 +12120,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0806F23D-B9A2-47F6-944F-C9CBCA9C19DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="35e04e53-8035-4693-a7c1-f4caf4429e95"/>
-    <ds:schemaRef ds:uri="94dc1244-2250-4226-8a6d-024056f3e2cb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C174E5AA-90BA-4977-9C8D-755907BC5F7D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="35e04e53-8035-4693-a7c1-f4caf4429e95" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="94dc1244-2250-4226-8a6d-024056f3e2cb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E61626AA-1485-4E38-BAF5-CEA6E72049F3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12172,4 +12157,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C174E5AA-90BA-4977-9C8D-755907BC5F7D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0806F23D-B9A2-47F6-944F-C9CBCA9C19DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="35e04e53-8035-4693-a7c1-f4caf4429e95"/>
+    <ds:schemaRef ds:uri="94dc1244-2250-4226-8a6d-024056f3e2cb"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>